--- a/lab6/Report/Анализ.xlsx
+++ b/lab6/Report/Анализ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ini\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ini/Documents/TUSUR/3 семак/СД/Data-structures/lab6/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EC5FF8-95B0-40AC-BB08-8D48503A9663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C91BBAC-4368-7C4F-B27B-50937DADDB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69438270-DBB1-A946-9420-CBEA07F1DC8E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="1" xr2:uid="{69438270-DBB1-A946-9420-CBEA07F1DC8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Сырые данные" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Insert [Microseconds]</t>
   </si>
@@ -79,10 +79,40 @@
     <t>milliseconds</t>
   </si>
   <si>
-    <t>Красно-черные дерево</t>
+    <t>КЧД (суммарное) сек</t>
   </si>
   <si>
-    <t>АВЛ-дерево</t>
+    <t>КЧД (максимум) мс</t>
+  </si>
+  <si>
+    <t>АВЛ (суммарное) сек</t>
+  </si>
+  <si>
+    <t>АВЛ (максимум) мс</t>
+  </si>
+  <si>
+    <t>Вставка (время) шт * 10^8</t>
+  </si>
+  <si>
+    <t>Вставка (повороты) шт * 10^8</t>
+  </si>
+  <si>
+    <t>Удаление (повороты) шт * 10^8</t>
+  </si>
+  <si>
+    <t>КЧД (суммарное) шт * 10^6</t>
+  </si>
+  <si>
+    <t>КЧД (максимум) шт</t>
+  </si>
+  <si>
+    <t>АВЛ (максимум) шт</t>
+  </si>
+  <si>
+    <t>АВЛ (суммарное) шт * 10^6</t>
+  </si>
+  <si>
+    <t>Удаление (время) шт * 10^8</t>
   </si>
 </sst>
 </file>
@@ -235,7 +265,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Красно-черные дерево</c:v>
+                  <c:v>КЧД (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -360,7 +390,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>АВЛ-дерево</c:v>
+                  <c:v>АВЛ (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -841,7 +871,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Красно-черные дерево</c:v>
+                  <c:v>КЧД (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -952,7 +982,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>АВЛ-дерево</c:v>
+                  <c:v>АВЛ (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1431,7 +1461,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Красно-черные дерево</c:v>
+                  <c:v>КЧД (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1556,7 +1586,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>АВЛ-дерево</c:v>
+                  <c:v>АВЛ (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2044,7 +2074,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Красно-черные дерево</c:v>
+                  <c:v>КЧД (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2155,7 +2185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>АВЛ-дерево</c:v>
+                  <c:v>АВЛ (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2634,7 +2664,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Красно-черные дерево</c:v>
+                  <c:v>КЧД (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2759,7 +2789,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>АВЛ-дерево</c:v>
+                  <c:v>АВЛ (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3244,7 +3274,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Красно-черные дерево</c:v>
+                  <c:v>КЧД (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3355,7 +3385,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>АВЛ-дерево</c:v>
+                  <c:v>АВЛ (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3834,7 +3864,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Красно-черные дерево</c:v>
+                  <c:v>КЧД (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3959,7 +3989,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>АВЛ-дерево</c:v>
+                  <c:v>АВЛ (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4450,7 +4480,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Красно-черные дерево</c:v>
+                  <c:v>КЧД (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4561,7 +4591,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>АВЛ-дерево</c:v>
+                  <c:v>АВЛ (суммарное) сек</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10001,14 +10031,14 @@
       <selection sqref="A1:F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>100000000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10025,7 +10055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10000000</v>
       </c>
@@ -10042,7 +10072,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20000000</v>
       </c>
@@ -10059,7 +10089,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30000000</v>
       </c>
@@ -10076,7 +10106,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40000000</v>
       </c>
@@ -10093,7 +10123,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50000000</v>
       </c>
@@ -10110,7 +10140,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60000000</v>
       </c>
@@ -10127,7 +10157,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70000000</v>
       </c>
@@ -10144,7 +10174,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>80000000</v>
       </c>
@@ -10161,7 +10191,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>90000000</v>
       </c>
@@ -10178,7 +10208,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100000000</v>
       </c>
@@ -10195,12 +10225,12 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10000000</v>
       </c>
@@ -10217,7 +10247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20000000</v>
       </c>
@@ -10234,7 +10264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30000000</v>
       </c>
@@ -10251,7 +10281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>40000000</v>
       </c>
@@ -10268,7 +10298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>50000000</v>
       </c>
@@ -10285,7 +10315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>60000000</v>
       </c>
@@ -10302,7 +10332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>70000000</v>
       </c>
@@ -10319,7 +10349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>80000000</v>
       </c>
@@ -10336,7 +10366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>90000000</v>
       </c>
@@ -10353,7 +10383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>100000000</v>
       </c>
@@ -10370,12 +10400,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10000000</v>
       </c>
@@ -10392,7 +10422,7 @@
         <v>8776</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20000000</v>
       </c>
@@ -10409,7 +10439,7 @@
         <v>8254</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30000000</v>
       </c>
@@ -10426,7 +10456,7 @@
         <v>10027</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>40000000</v>
       </c>
@@ -10443,7 +10473,7 @@
         <v>6717</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>50000000</v>
       </c>
@@ -10460,7 +10490,7 @@
         <v>8886</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>60000000</v>
       </c>
@@ -10477,7 +10507,7 @@
         <v>7262</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>70000000</v>
       </c>
@@ -10494,7 +10524,7 @@
         <v>21826</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>80000000</v>
       </c>
@@ -10511,7 +10541,7 @@
         <v>8349</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>90000000</v>
       </c>
@@ -10528,7 +10558,7 @@
         <v>7951</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>100000000</v>
       </c>
@@ -10545,12 +10575,12 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10000000</v>
       </c>
@@ -10567,7 +10597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>20000000</v>
       </c>
@@ -10584,7 +10614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>30000000</v>
       </c>
@@ -10601,7 +10631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40000000</v>
       </c>
@@ -10618,7 +10648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>50000000</v>
       </c>
@@ -10635,7 +10665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>60000000</v>
       </c>
@@ -10652,7 +10682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>70000000</v>
       </c>
@@ -10669,7 +10699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>80000000</v>
       </c>
@@ -10686,7 +10716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>90000000</v>
       </c>
@@ -10703,7 +10733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>100000000</v>
       </c>
@@ -10729,39 +10759,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633AC2A5-C179-F94F-8144-105253DD169D}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="168" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f>'Сырые данные'!A2</f>
-        <v>Insert [Microseconds]</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="str">
-        <f>'Сырые данные'!C2</f>
-        <v>Red-black tree (MAX)</v>
+      <c r="C1" t="s">
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="str">
-        <f>'Сырые данные'!E2</f>
-        <v>AVL-tree (MAX)</v>
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -10770,7 +10797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>'Сырые данные'!A3/'Сырые данные'!$A$1+1</f>
         <v>1.1000000000000001</v>
@@ -10800,7 +10827,7 @@
         <v>-1.177</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>'Сырые данные'!A4/'Сырые данные'!$A$1+1</f>
         <v>1.2</v>
@@ -10830,7 +10857,7 @@
         <v>-0.93599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>'Сырые данные'!A5/'Сырые данные'!$A$1+1</f>
         <v>1.3</v>
@@ -10860,7 +10887,7 @@
         <v>-3.452</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>'Сырые данные'!A6/'Сырые данные'!$A$1+1</f>
         <v>1.4</v>
@@ -10890,7 +10917,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>'Сырые данные'!A7/'Сырые данные'!$A$1+1</f>
         <v>1.5</v>
@@ -10920,7 +10947,7 @@
         <v>1.2949999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>'Сырые данные'!A8/'Сырые данные'!$A$1+1</f>
         <v>1.6</v>
@@ -10950,7 +10977,7 @@
         <v>-1.4750000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>'Сырые данные'!A9/'Сырые данные'!$A$1+1</f>
         <v>1.7</v>
@@ -10980,7 +11007,7 @@
         <v>-1.859</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>'Сырые данные'!A10/'Сырые данные'!$A$1+1</f>
         <v>1.8</v>
@@ -11010,7 +11037,7 @@
         <v>-2.4820000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>'Сырые данные'!A11/'Сырые данные'!$A$1+1</f>
         <v>1.9</v>
@@ -11040,7 +11067,7 @@
         <v>-0.85799999999999987</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>'Сырые данные'!A12/'Сырые данные'!$A$1+1</f>
         <v>2</v>
@@ -11070,10 +11097,21 @@
         <v>1.3530000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>'Сырые данные'!A14</f>
-        <v>Insert [Rotations]</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -11082,7 +11120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>'Сырые данные'!A15/'Сырые данные'!$A$1+1</f>
         <v>1.1000000000000001</v>
@@ -11112,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>'Сырые данные'!A16/'Сырые данные'!$A$1+1</f>
         <v>1.2</v>
@@ -11142,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>'Сырые данные'!A17/'Сырые данные'!$A$1+1</f>
         <v>1.3</v>
@@ -11172,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>'Сырые данные'!A18/'Сырые данные'!$A$1+1</f>
         <v>1.4</v>
@@ -11202,7 +11240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>'Сырые данные'!A19/'Сырые данные'!$A$1+1</f>
         <v>1.5</v>
@@ -11232,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>'Сырые данные'!A20/'Сырые данные'!$A$1+1</f>
         <v>1.6</v>
@@ -11262,7 +11300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>'Сырые данные'!A21/'Сырые данные'!$A$1+1</f>
         <v>1.7</v>
@@ -11292,7 +11330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>'Сырые данные'!A22/'Сырые данные'!$A$1+1</f>
         <v>1.8</v>
@@ -11322,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>'Сырые данные'!A23/'Сырые данные'!$A$1+1</f>
         <v>1.9</v>
@@ -11352,7 +11390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>'Сырые данные'!A24/'Сырые данные'!$A$1+1</f>
         <v>2</v>
@@ -11382,10 +11420,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>'Сырые данные'!A26</f>
-        <v>Remove [Microseconds]</v>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -11394,7 +11443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>'Сырые данные'!A27/'Сырые данные'!$A$1+1</f>
         <v>1.1000000000000001</v>
@@ -11424,7 +11473,7 @@
         <v>4.3479999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>'Сырые данные'!A28/'Сырые данные'!$A$1+1</f>
         <v>1.2</v>
@@ -11454,7 +11503,7 @@
         <v>4.3339999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>'Сырые данные'!A29/'Сырые данные'!$A$1+1</f>
         <v>1.3</v>
@@ -11484,7 +11533,7 @@
         <v>4.5349999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>'Сырые данные'!A30/'Сырые данные'!$A$1+1</f>
         <v>1.4</v>
@@ -11514,7 +11563,7 @@
         <v>-2.7549999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <f>'Сырые данные'!A31/'Сырые данные'!$A$1+1</f>
         <v>1.5</v>
@@ -11544,7 +11593,7 @@
         <v>4.8759999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <f>'Сырые данные'!A32/'Сырые данные'!$A$1+1</f>
         <v>1.6</v>
@@ -11574,7 +11623,7 @@
         <v>1.6889999999999992</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>'Сырые данные'!A33/'Сырые данные'!$A$1+1</f>
         <v>1.7</v>
@@ -11604,7 +11653,7 @@
         <v>16.878</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>'Сырые данные'!A34/'Сырые данные'!$A$1+1</f>
         <v>1.8</v>
@@ -11634,7 +11683,7 @@
         <v>4.0110000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>'Сырые данные'!A35/'Сырые данные'!$A$1+1</f>
         <v>1.9</v>
@@ -11664,7 +11713,7 @@
         <v>-0.1800000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <f>'Сырые данные'!A36/'Сырые данные'!$A$1+1</f>
         <v>2</v>
@@ -11694,10 +11743,27 @@
         <v>6.995000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>'Сырые данные'!A38</f>
-        <v>Remove [Rotations]</v>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f>SUM(F26:F35)</f>
+        <v>45.621247999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -11706,7 +11772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>'Сырые данные'!A39/'Сырые данные'!$A$1+1</f>
         <v>1.1000000000000001</v>
@@ -11736,7 +11802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <f>'Сырые данные'!A40/'Сырые данные'!$A$1+1</f>
         <v>1.2</v>
@@ -11766,7 +11832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>'Сырые данные'!A41/'Сырые данные'!$A$1+1</f>
         <v>1.3</v>
@@ -11796,7 +11862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>'Сырые данные'!A42/'Сырые данные'!$A$1+1</f>
         <v>1.4</v>
@@ -11826,7 +11892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>'Сырые данные'!A43/'Сырые данные'!$A$1+1</f>
         <v>1.5</v>
@@ -11856,7 +11922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>'Сырые данные'!A44/'Сырые данные'!$A$1+1</f>
         <v>1.6</v>
@@ -11886,7 +11952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>'Сырые данные'!A45/'Сырые данные'!$A$1+1</f>
         <v>1.7</v>
@@ -11916,7 +11982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <f>'Сырые данные'!A46/'Сырые данные'!$A$1+1</f>
         <v>1.8</v>
@@ -11946,7 +12012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <f>'Сырые данные'!A47/'Сырые данные'!$A$1+1</f>
         <v>1.9</v>
@@ -11976,7 +12042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <f>'Сырые данные'!A48/'Сырые данные'!$A$1+1</f>
         <v>2</v>
